--- a/股票操作/操作记录/操作记录.xlsx
+++ b/股票操作/操作记录/操作记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\sm\gitpro\股票操作\操作记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590786C5-8F6A-42BA-8D1E-B7ABC756F444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF2BA1-49BC-48E4-9DF0-20C0A7EBF37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,12 +452,261 @@
     <t>美股暴跌，熊市对券商失去信心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>兴业银行
+建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平开19.75买60000
+平开6买60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策建议银行降低拨备，贷款可能降息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕踏空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入被套0.5个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行 60000
+建设银行 60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足够便宜或业绩大涨才是确定性利好，应对经济运行的政策未必会导致上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19.67卖30000
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">兴业银行
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被套减仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕重仓深套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行 30000
+建设银行 60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场与预期不一致，减仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平开19.51买30000
+平开5.97买30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行 60000
+建设银行 90000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美股反弹2.5个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩A股会跟随美股上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股未涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">美股大涨，A股赌美股回调；美股大跌，A股赌美股反弹。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为何18日与17日交易思路差异如此大？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾盘19.42卖30000
+5.96卖30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股未跟随美股上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做T容易导致重仓被套，短线一定要果断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨2点19.67卖30000
+涨0.5，5.9,9卖60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5年期LPR下调15基点，市场普涨，反弹清仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做单失败，清仓休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月初缩表，美股下行周期，持币等待机会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交科转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+浙江交科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌7点121.255买入100
+121.255买入100
+118.74卖出200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌7点6.46买入13000
+6.33买入25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新钢股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌5点5.52买入10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌大跌盘中反弹，转债可T+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌大跌盘中反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转债调仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时决定，交易混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T+0放松了仓控要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计20000仓位，实际达到了37000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江交科 37000
+新钢股份 10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6.47清仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位失败，清仓休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓控失败后对自己失去信心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓后3天反弹10个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好股低位要有仓位，被套是正常现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+新钢股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5.61清仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓控失败，清仓休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">跌3点132.7买入50000
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转债相对正股有3个点折价，未考虑正股下个交易日分红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时决定，没有仓控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入后被套2个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交科转债 50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一个交易日交科涨停，急于建仓，临时决定毫无仓控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +752,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -524,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -539,6 +802,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -821,11 +1090,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1262,6 +1531,295 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44697</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44698</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44699</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44699</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44701</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21">
+        <v>70</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44705</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22">
+        <v>70</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44705</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44705</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24">
+        <v>70</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44706</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44706</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44722</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/股票操作/操作记录/操作记录.xlsx
+++ b/股票操作/操作记录/操作记录.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\sm\gitpro\股票操作\操作记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF2BA1-49BC-48E4-9DF0-20C0A7EBF37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBDFB2F-5019-4450-A5F3-B4D2117E0E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="213">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -699,6 +699,340 @@
   </si>
   <si>
     <t>前一个交易日交科涨停，急于建仓，临时决定毫无仓控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨1点131.8卖出50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正股交科短期处于高位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出第二天转债折价消失，转债涨5个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超短买入后1天未盈利，不敢持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超短失败，为何等上涨1个点斩仓？应该当天果断斩仓，或者等短线逻辑实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方大特钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空仓非常焦虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>厚尾逼空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌3点7.17买入方大特钢35000
+跌2点7.23买入方大特钢35000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘大涨后回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚尾逼空，买入即被套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方大特钢70000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平开6.06买入80000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国加息75基点，外围没有大跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉牛市来了，轻仓非常焦虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外围第二天暴跌，买入后被轻套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方大特钢70000
+建设银行80000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划平开方大特钢和建设银行减半仓，结果开盘红盘未减仓导致尾盘方大特钢继续下跌1个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美股暴跌4个点，A股不再上涨，牛市存疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想A股继续大涨，盘中未执行计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方大特钢继续下跌1个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不能执行交易计划，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开盘前将计划过3遍。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平中信证券买入10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场持续上涨，券商可能爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕错过券商行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情好可以操作券商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方大特钢70000
+建设银行80000
+中信证券10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓中信证券10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末出消息中国卖航空零件给俄罗斯，害怕中国卷入冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕行情逆转，导致券商大跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓后3个交易日，中信证券暴涨5个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以预估下潜在损失与收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">方大特钢70000
+建设银行80000
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信证券调仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不愿意减仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方大特钢70000
+建设银行80000
+新钢股份10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然觉得市场有风险为何不减仓而是调仓？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00卖出26000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方大特钢70000
+建设银行54000
+新钢股份10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减仓后2个交易日建行回到建仓价6.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畏惧风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新钢下跌2个点买入10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入第二天盈利2个点，但是分红后无法卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下跌后想做T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯性做T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出后接下来二个交易日上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无操作计划随意做T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下跌1个点7买入10000
+下跌2个点6.9卖出10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平开6.9买入10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套4个点加仓10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被套后逐步加仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方威清仓股票，方大特钢估值与其他钢铁股相比明显高估，如果高分红发生变化后果很严重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规避风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行54000
+新钢股份10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入4000股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行54000
+新钢股份30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁低估，处于价格低位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊市开仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华菱钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入6000股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行54000
+新钢股份30000
+华菱钢铁30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数高位横盘，持币观望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新钢股份30000
+华菱钢铁30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓54000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国中铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开仓失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中铁处于短线低位，有股东增持利好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于已持有10000仓位因此交易中铁比较谨慎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘上涨到0.5点未买入，收盘上涨2.5个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划要写下来，明确开仓条件，开盘前读三遍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,11 +1424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1820,6 +2154,408 @@
         <v>138</v>
       </c>
     </row>
+    <row r="28" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44725</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44727</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44728</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30">
+        <v>60</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44728</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44729</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44732</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33">
+        <v>40</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44732</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44732</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35">
+        <v>60</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36">
+        <v>40</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44739</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38">
+        <v>70</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44739</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39">
+        <v>70</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44739</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40">
+        <v>70</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41">
+        <v>70</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
